--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sfrp1</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sfrp1</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H2">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I2">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J2">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N2">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q2">
-        <v>0.02799990666311111</v>
+        <v>0.4564343421866667</v>
       </c>
       <c r="R2">
-        <v>0.251999159968</v>
+        <v>4.10790907968</v>
       </c>
       <c r="S2">
-        <v>7.476434222965059E-05</v>
+        <v>0.001244680953220273</v>
       </c>
       <c r="T2">
-        <v>7.476434222965059E-05</v>
+        <v>0.001244680953220273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H3">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I3">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J3">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q3">
-        <v>4.768757834783555</v>
+        <v>223.9576151202133</v>
       </c>
       <c r="R3">
-        <v>42.918820513052</v>
+        <v>2015.61853608192</v>
       </c>
       <c r="S3">
-        <v>0.01273336540224275</v>
+        <v>0.6107248121018118</v>
       </c>
       <c r="T3">
-        <v>0.01273336540224275</v>
+        <v>0.610724812101812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H4">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I4">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J4">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q4">
-        <v>2.017780094003</v>
+        <v>94.76203937088</v>
       </c>
       <c r="R4">
-        <v>18.160020846027</v>
+        <v>852.85835433792</v>
       </c>
       <c r="S4">
-        <v>0.005387803727609096</v>
+        <v>0.2584128637827319</v>
       </c>
       <c r="T4">
-        <v>0.005387803727609096</v>
+        <v>0.2584128637827319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H5">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I5">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J5">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N5">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q5">
-        <v>1.314973948586667</v>
+        <v>0.06797236091444445</v>
       </c>
       <c r="R5">
-        <v>11.83476553728</v>
+        <v>0.6117512482299999</v>
       </c>
       <c r="S5">
-        <v>0.00351119607283308</v>
+        <v>0.0001853583202576438</v>
       </c>
       <c r="T5">
-        <v>0.00351119607283308</v>
+        <v>0.0001853583202576438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H6">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I6">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J6">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P6">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q6">
-        <v>223.9576151202133</v>
+        <v>33.35184590090222</v>
       </c>
       <c r="R6">
-        <v>2015.61853608192</v>
+        <v>300.16661310812</v>
       </c>
       <c r="S6">
-        <v>0.5980035570562701</v>
+        <v>0.09094935133214278</v>
       </c>
       <c r="T6">
-        <v>0.5980035570562702</v>
+        <v>0.09094935133214277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H7">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I7">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J7">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q7">
-        <v>94.76203937088</v>
+        <v>14.11199584643</v>
       </c>
       <c r="R7">
-        <v>852.85835433792</v>
+        <v>127.00796261787</v>
       </c>
       <c r="S7">
-        <v>0.2530301842483675</v>
+        <v>0.03848293350983555</v>
       </c>
       <c r="T7">
-        <v>0.2530301842483675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H8">
-        <v>7.69973</v>
-      </c>
-      <c r="I8">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J8">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.07629866666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.228896</v>
-      </c>
-      <c r="O8">
-        <v>0.004108848954870246</v>
-      </c>
-      <c r="P8">
-        <v>0.004108848954870246</v>
-      </c>
-      <c r="Q8">
-        <v>0.1958263775644445</v>
-      </c>
-      <c r="R8">
-        <v>1.76243739808</v>
-      </c>
-      <c r="S8">
-        <v>0.0005228885398075156</v>
-      </c>
-      <c r="T8">
-        <v>0.0005228885398075155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H9">
-        <v>7.69973</v>
-      </c>
-      <c r="I9">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J9">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>12.99468133333333</v>
-      </c>
-      <c r="N9">
-        <v>38.984044</v>
-      </c>
-      <c r="O9">
-        <v>0.6997918200668237</v>
-      </c>
-      <c r="P9">
-        <v>0.6997918200668238</v>
-      </c>
-      <c r="Q9">
-        <v>33.35184590090222</v>
-      </c>
-      <c r="R9">
-        <v>300.16661310812</v>
-      </c>
-      <c r="S9">
-        <v>0.08905489760831094</v>
-      </c>
-      <c r="T9">
-        <v>0.08905489760831094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H10">
-        <v>7.69973</v>
-      </c>
-      <c r="I10">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J10">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.498373</v>
-      </c>
-      <c r="N10">
-        <v>16.495119</v>
-      </c>
-      <c r="O10">
-        <v>0.296099330978306</v>
-      </c>
-      <c r="P10">
-        <v>0.296099330978306</v>
-      </c>
-      <c r="Q10">
-        <v>14.11199584643</v>
-      </c>
-      <c r="R10">
-        <v>127.00796261787</v>
-      </c>
-      <c r="S10">
-        <v>0.03768134300232948</v>
-      </c>
-      <c r="T10">
-        <v>0.03768134300232947</v>
+        <v>0.03848293350983555</v>
       </c>
     </row>
   </sheetData>
